--- a/models/final.xlsx
+++ b/models/final.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A224554-69C7-460E-81D3-EB6BB4DC0742}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581CC53-2716-494D-BB71-14E22762AE09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="836">
   <si>
     <t>Department Name</t>
   </si>
@@ -2522,6 +2527,12 @@
   </si>
   <si>
     <t>Short Name</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>CHEMISTRY B H test</t>
   </si>
 </sst>
 </file>
@@ -2911,20 +2922,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J351"/>
+  <dimension ref="A1:N351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2955,8 +2967,11 @@
       <c r="J1" s="10" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2987,8 +3002,16 @@
       <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" t="str">
+        <f>IF(RIGHT(J2, 1)="*", LEFT(RIGHT(J2, 2),1), RIGHT(J2, 1))</f>
+        <v>A</v>
+      </c>
+      <c r="N2">
+        <f>IF(M2="A", 1, IF(M2="B", 2, 3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -3019,8 +3042,16 @@
       <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="0">IF(RIGHT(J3, 1)="*", LEFT(RIGHT(J3, 2),1), RIGHT(J3, 1))</f>
+        <v>B</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="1">IF(M3="A", 1, IF(M3="B", 2, 3))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3051,8 +3082,16 @@
       <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -3083,8 +3122,16 @@
       <c r="J5" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -3115,8 +3162,16 @@
       <c r="J6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -3147,8 +3202,16 @@
       <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -3179,8 +3242,16 @@
       <c r="J8" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -3211,8 +3282,16 @@
       <c r="J9" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3243,8 +3322,16 @@
       <c r="J10" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -3275,8 +3362,16 @@
       <c r="J11" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -3312,8 +3407,16 @@
       <c r="J12" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -3349,8 +3452,16 @@
       <c r="J13" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -3381,8 +3492,16 @@
       <c r="J14" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -3413,8 +3532,16 @@
       <c r="J15" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
@@ -3445,8 +3572,16 @@
       <c r="J16" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -3482,8 +3617,16 @@
       <c r="J17" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -3514,8 +3657,16 @@
       <c r="J18" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
@@ -3546,8 +3697,16 @@
       <c r="J19" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -3578,8 +3737,16 @@
       <c r="J20" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
@@ -3615,8 +3782,16 @@
       <c r="J21" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -3647,8 +3822,16 @@
       <c r="J22" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
@@ -3684,8 +3867,16 @@
       <c r="J23" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -3716,8 +3907,16 @@
       <c r="J24" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -3753,8 +3952,16 @@
       <c r="J25" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -3785,8 +3992,16 @@
       <c r="J26" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -3822,8 +4037,16 @@
       <c r="J27" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -3854,8 +4077,16 @@
       <c r="J28" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -3886,8 +4117,16 @@
       <c r="J29" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
@@ -3923,8 +4162,16 @@
       <c r="J30" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>9</v>
       </c>
@@ -3955,8 +4202,16 @@
       <c r="J31" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>102</v>
       </c>
@@ -3992,8 +4247,16 @@
       <c r="J32" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -4024,8 +4287,16 @@
       <c r="J33" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
@@ -4061,8 +4332,16 @@
       <c r="J34" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
@@ -4093,8 +4372,16 @@
       <c r="J35" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>102</v>
       </c>
@@ -4130,8 +4417,16 @@
       <c r="J36" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>102</v>
       </c>
@@ -4162,8 +4457,16 @@
       <c r="J37" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>121</v>
       </c>
@@ -4199,8 +4502,16 @@
       <c r="J38" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>121</v>
       </c>
@@ -4231,8 +4542,16 @@
       <c r="J39" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
@@ -4268,8 +4587,16 @@
       <c r="J40" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>31</v>
       </c>
@@ -4300,8 +4627,16 @@
       <c r="J41" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
@@ -4337,8 +4672,16 @@
       <c r="J42" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>31</v>
       </c>
@@ -4369,8 +4712,16 @@
       <c r="J43" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -4406,8 +4757,16 @@
       <c r="J44" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -4438,8 +4797,16 @@
       <c r="J45" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -4470,8 +4837,16 @@
       <c r="J46" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -4502,8 +4877,16 @@
       <c r="J47" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -4534,8 +4917,16 @@
       <c r="J48" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
@@ -4566,8 +4957,16 @@
       <c r="J49" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
@@ -4603,8 +5002,16 @@
       <c r="J50" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
@@ -4635,8 +5042,16 @@
       <c r="J51" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
@@ -4672,8 +5087,16 @@
       <c r="J52" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>102</v>
       </c>
@@ -4684,7 +5107,7 @@
         <v>164</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>165</v>
+        <v>835</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>13</v>
@@ -4704,8 +5127,16 @@
       <c r="J53" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>102</v>
       </c>
@@ -4741,8 +5172,16 @@
       <c r="J54" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>102</v>
       </c>
@@ -4773,8 +5212,16 @@
       <c r="J55" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>175</v>
       </c>
@@ -4810,8 +5257,16 @@
       <c r="J56" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>175</v>
       </c>
@@ -4842,8 +5297,16 @@
       <c r="J57" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M57" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>175</v>
       </c>
@@ -4879,8 +5342,16 @@
       <c r="J58" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M58" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>175</v>
       </c>
@@ -4911,8 +5382,16 @@
       <c r="J59" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>175</v>
       </c>
@@ -4948,8 +5427,16 @@
       <c r="J60" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>175</v>
       </c>
@@ -4980,8 +5467,16 @@
       <c r="J61" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M61" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>175</v>
       </c>
@@ -5017,8 +5512,16 @@
       <c r="J62" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M62" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>175</v>
       </c>
@@ -5054,8 +5557,16 @@
       <c r="J63" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>175</v>
       </c>
@@ -5086,8 +5597,16 @@
       <c r="J64" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M64" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>175</v>
       </c>
@@ -5123,8 +5642,16 @@
       <c r="J65" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>175</v>
       </c>
@@ -5155,8 +5682,16 @@
       <c r="J66" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>102</v>
       </c>
@@ -5192,8 +5727,16 @@
       <c r="J67" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M130" si="2">IF(RIGHT(J67, 1)="*", LEFT(RIGHT(J67, 2),1), RIGHT(J67, 1))</f>
+        <v>A</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="3">IF(M67="A", 1, IF(M67="B", 2, 3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>102</v>
       </c>
@@ -5224,8 +5767,16 @@
       <c r="J68" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>212</v>
       </c>
@@ -5261,8 +5812,16 @@
       <c r="J69" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M69" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>212</v>
       </c>
@@ -5293,8 +5852,16 @@
       <c r="J70" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M70" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>219</v>
       </c>
@@ -5325,8 +5892,16 @@
       <c r="J71" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M71" t="str">
+        <f t="shared" si="2"/>
+        <v>R</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>29</v>
       </c>
@@ -5357,8 +5932,16 @@
       <c r="J72" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>58</v>
       </c>
@@ -5394,8 +5977,16 @@
       <c r="J73" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M73" t="str">
+        <f t="shared" si="2"/>
+        <v>e</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -5431,8 +6022,16 @@
       <c r="J74" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M74" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>50</v>
       </c>
@@ -5468,8 +6067,16 @@
       <c r="J75" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M75" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>29</v>
       </c>
@@ -5500,8 +6107,16 @@
       <c r="J76" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M76" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>50</v>
       </c>
@@ -5537,8 +6152,16 @@
       <c r="J77" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M77" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>50</v>
       </c>
@@ -5569,8 +6192,16 @@
       <c r="J78" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>50</v>
       </c>
@@ -5606,8 +6237,16 @@
       <c r="J79" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M79" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
@@ -5638,8 +6277,16 @@
       <c r="J80" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M80" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>212</v>
       </c>
@@ -5675,8 +6322,16 @@
       <c r="J81" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M81" t="str">
+        <f t="shared" si="2"/>
+        <v>e</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>212</v>
       </c>
@@ -5707,8 +6362,16 @@
       <c r="J82" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M82" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>9</v>
       </c>
@@ -5739,8 +6402,16 @@
       <c r="J83" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M83" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>9</v>
       </c>
@@ -5771,8 +6442,16 @@
       <c r="J84" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M84" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>9</v>
       </c>
@@ -5808,8 +6487,16 @@
       <c r="J85" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M85" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>9</v>
       </c>
@@ -5840,8 +6527,16 @@
       <c r="J86" s="5" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M86" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>9</v>
       </c>
@@ -5877,8 +6572,16 @@
       <c r="J87" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M87" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>9</v>
       </c>
@@ -5909,8 +6612,16 @@
       <c r="J88" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M88" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>9</v>
       </c>
@@ -5946,8 +6657,16 @@
       <c r="J89" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M89" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>9</v>
       </c>
@@ -5978,8 +6697,16 @@
       <c r="J90" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M90" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>9</v>
       </c>
@@ -6010,8 +6737,16 @@
       <c r="J91" s="8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M91" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>9</v>
       </c>
@@ -6042,8 +6777,16 @@
       <c r="J92" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M92" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>9</v>
       </c>
@@ -6079,8 +6822,16 @@
       <c r="J93" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M93" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>9</v>
       </c>
@@ -6111,8 +6862,16 @@
       <c r="J94" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M94" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>9</v>
       </c>
@@ -6143,8 +6902,16 @@
       <c r="J95" s="8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M95" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>9</v>
       </c>
@@ -6180,8 +6947,16 @@
       <c r="J96" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M96" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
@@ -6212,8 +6987,16 @@
       <c r="J97" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M97" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>24</v>
       </c>
@@ -6244,8 +7027,16 @@
       <c r="J98" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M98" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>24</v>
       </c>
@@ -6276,8 +7067,16 @@
       <c r="J99" s="8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M99" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>24</v>
       </c>
@@ -6313,8 +7112,16 @@
       <c r="J100" s="5" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M100" t="str">
+        <f t="shared" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -6345,8 +7152,16 @@
       <c r="J101" s="8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M101" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>58</v>
       </c>
@@ -6377,8 +7192,16 @@
       <c r="J102" s="5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M102" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>58</v>
       </c>
@@ -6409,8 +7232,16 @@
       <c r="J103" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M103" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>58</v>
       </c>
@@ -6446,8 +7277,16 @@
       <c r="J104" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M104" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>58</v>
       </c>
@@ -6483,8 +7322,16 @@
       <c r="J105" s="8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M105" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>58</v>
       </c>
@@ -6520,8 +7367,16 @@
       <c r="J106" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M106" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>58</v>
       </c>
@@ -6552,8 +7407,16 @@
       <c r="J107" s="8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M107" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>58</v>
       </c>
@@ -6589,8 +7452,16 @@
       <c r="J108" s="5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M108" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>58</v>
       </c>
@@ -6621,8 +7492,16 @@
       <c r="J109" s="8" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M109" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>58</v>
       </c>
@@ -6658,8 +7537,16 @@
       <c r="J110" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M110" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>58</v>
       </c>
@@ -6690,8 +7577,16 @@
       <c r="J111" s="8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M111" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>58</v>
       </c>
@@ -6722,8 +7617,16 @@
       <c r="J112" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M112" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>58</v>
       </c>
@@ -6759,8 +7662,16 @@
       <c r="J113" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M113" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>58</v>
       </c>
@@ -6791,8 +7702,16 @@
       <c r="J114" s="5" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M114" t="str">
+        <f t="shared" si="2"/>
+        <v>h</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>58</v>
       </c>
@@ -6823,8 +7742,16 @@
       <c r="J115" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M115" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>58</v>
       </c>
@@ -6855,8 +7782,16 @@
       <c r="J116" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M116" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>58</v>
       </c>
@@ -6892,8 +7827,16 @@
       <c r="J117" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M117" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>58</v>
       </c>
@@ -6924,8 +7867,16 @@
       <c r="J118" s="5" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M118" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>58</v>
       </c>
@@ -6961,8 +7912,16 @@
       <c r="J119" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M119" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>58</v>
       </c>
@@ -6998,8 +7957,16 @@
       <c r="J120" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M120" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>58</v>
       </c>
@@ -7035,8 +8002,16 @@
       <c r="J121" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M121" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>58</v>
       </c>
@@ -7067,8 +8042,16 @@
       <c r="J122" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M122" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>29</v>
       </c>
@@ -7099,8 +8082,16 @@
       <c r="J123" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M123" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>29</v>
       </c>
@@ -7131,8 +8122,16 @@
       <c r="J124" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M124" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>50</v>
       </c>
@@ -7168,8 +8167,16 @@
       <c r="J125" s="8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M125" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>50</v>
       </c>
@@ -7205,8 +8212,16 @@
       <c r="J126" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M126" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>102</v>
       </c>
@@ -7242,8 +8257,16 @@
       <c r="J127" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M127" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>102</v>
       </c>
@@ -7279,8 +8302,16 @@
       <c r="J128" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M128" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>102</v>
       </c>
@@ -7311,8 +8342,16 @@
       <c r="J129" s="8" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M129" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>24</v>
       </c>
@@ -7348,8 +8387,16 @@
       <c r="J130" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M130" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>24</v>
       </c>
@@ -7385,8 +8432,16 @@
       <c r="J131" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M131" t="str">
+        <f t="shared" ref="M131:M194" si="4">IF(RIGHT(J131, 1)="*", LEFT(RIGHT(J131, 2),1), RIGHT(J131, 1))</f>
+        <v>A</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="5">IF(M131="A", 1, IF(M131="B", 2, 3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>24</v>
       </c>
@@ -7417,8 +8472,16 @@
       <c r="J132" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M132" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>58</v>
       </c>
@@ -7449,8 +8512,16 @@
       <c r="J133" s="8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M133" t="str">
+        <f t="shared" si="4"/>
+        <v>e</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>50</v>
       </c>
@@ -7486,8 +8557,16 @@
       <c r="J134" s="5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M134" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>29</v>
       </c>
@@ -7518,8 +8597,16 @@
       <c r="J135" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M135" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>58</v>
       </c>
@@ -7550,8 +8637,16 @@
       <c r="J136" s="5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M136" t="str">
+        <f t="shared" si="4"/>
+        <v>g</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>58</v>
       </c>
@@ -7582,8 +8677,16 @@
       <c r="J137" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M137" t="str">
+        <f t="shared" si="4"/>
+        <v>e</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>9</v>
       </c>
@@ -7619,8 +8722,16 @@
       <c r="J138" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M138" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>9</v>
       </c>
@@ -7651,8 +8762,16 @@
       <c r="J139" s="8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M139" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>9</v>
       </c>
@@ -7688,8 +8807,16 @@
       <c r="J140" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M140" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>9</v>
       </c>
@@ -7720,8 +8847,16 @@
       <c r="J141" s="8" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M141" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>175</v>
       </c>
@@ -7757,8 +8892,16 @@
       <c r="J142" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M142" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>175</v>
       </c>
@@ -7789,8 +8932,16 @@
       <c r="J143" s="8" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M143" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>175</v>
       </c>
@@ -7826,8 +8977,16 @@
       <c r="J144" s="5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M144" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>175</v>
       </c>
@@ -7858,8 +9017,16 @@
       <c r="J145" s="8" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M145" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>175</v>
       </c>
@@ -7895,8 +9062,16 @@
       <c r="J146" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M146" t="str">
+        <f t="shared" si="4"/>
+        <v>s</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>175</v>
       </c>
@@ -7927,8 +9102,16 @@
       <c r="J147" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M147" t="str">
+        <f t="shared" si="4"/>
+        <v>H</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>175</v>
       </c>
@@ -7964,8 +9147,16 @@
       <c r="J148" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M148" t="str">
+        <f t="shared" si="4"/>
+        <v>s</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>175</v>
       </c>
@@ -7996,8 +9187,16 @@
       <c r="J149" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M149" t="str">
+        <f t="shared" si="4"/>
+        <v>H</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>31</v>
       </c>
@@ -8028,8 +9227,16 @@
       <c r="J150" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M150" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>31</v>
       </c>
@@ -8060,8 +9267,16 @@
       <c r="J151" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M151" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>31</v>
       </c>
@@ -8092,8 +9307,16 @@
       <c r="J152" s="5" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M152" t="str">
+        <f t="shared" si="4"/>
+        <v>)</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>50</v>
       </c>
@@ -8129,8 +9352,16 @@
       <c r="J153" s="8" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M153" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>24</v>
       </c>
@@ -8161,8 +9392,16 @@
       <c r="J154" s="5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M154" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>102</v>
       </c>
@@ -8198,8 +9437,16 @@
       <c r="J155" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M155" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>29</v>
       </c>
@@ -8230,8 +9477,16 @@
       <c r="J156" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M156" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>9</v>
       </c>
@@ -8267,8 +9522,16 @@
       <c r="J157" s="8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M157" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>9</v>
       </c>
@@ -8299,8 +9562,16 @@
       <c r="J158" s="5" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M158" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>24</v>
       </c>
@@ -8331,8 +9602,16 @@
       <c r="J159" s="8" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M159" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>24</v>
       </c>
@@ -8368,8 +9647,16 @@
       <c r="J160" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M160" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>175</v>
       </c>
@@ -8405,8 +9692,16 @@
       <c r="J161" s="8" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M161" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>175</v>
       </c>
@@ -8437,8 +9732,16 @@
       <c r="J162" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M162" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>175</v>
       </c>
@@ -8474,8 +9777,16 @@
       <c r="J163" s="8" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M163" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>175</v>
       </c>
@@ -8506,8 +9817,16 @@
       <c r="J164" s="5" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M164" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>175</v>
       </c>
@@ -8543,8 +9862,16 @@
       <c r="J165" s="8" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M165" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>175</v>
       </c>
@@ -8575,8 +9902,16 @@
       <c r="J166" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M166" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>175</v>
       </c>
@@ -8612,8 +9947,16 @@
       <c r="J167" s="8" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M167" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>175</v>
       </c>
@@ -8644,8 +9987,16 @@
       <c r="J168" s="5" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M168" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>434</v>
       </c>
@@ -8676,8 +10027,16 @@
       <c r="J169" s="8" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M169" t="str">
+        <f t="shared" si="4"/>
+        <v>H</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>175</v>
       </c>
@@ -8713,8 +10072,16 @@
       <c r="J170" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M170" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>175</v>
       </c>
@@ -8745,8 +10112,16 @@
       <c r="J171" s="8" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M171" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>175</v>
       </c>
@@ -8782,8 +10157,16 @@
       <c r="J172" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M172" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>175</v>
       </c>
@@ -8814,8 +10197,16 @@
       <c r="J173" s="8" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M173" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>175</v>
       </c>
@@ -8851,8 +10242,16 @@
       <c r="J174" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M174" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>175</v>
       </c>
@@ -8888,8 +10287,16 @@
       <c r="J175" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M175" t="str">
+        <f t="shared" si="4"/>
+        <v>s</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>175</v>
       </c>
@@ -8920,8 +10327,16 @@
       <c r="J176" s="5" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M176" t="str">
+        <f t="shared" si="4"/>
+        <v>H</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>175</v>
       </c>
@@ -8957,8 +10372,16 @@
       <c r="J177" s="8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M177" t="str">
+        <f t="shared" si="4"/>
+        <v>s</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>175</v>
       </c>
@@ -8989,8 +10412,16 @@
       <c r="J178" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M178" t="str">
+        <f t="shared" si="4"/>
+        <v>H</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>175</v>
       </c>
@@ -9026,8 +10457,16 @@
       <c r="J179" s="8" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M179" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>175</v>
       </c>
@@ -9058,8 +10497,16 @@
       <c r="J180" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M180" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>175</v>
       </c>
@@ -9095,8 +10542,16 @@
       <c r="J181" s="8" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M181" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>175</v>
       </c>
@@ -9127,8 +10582,16 @@
       <c r="J182" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M182" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>175</v>
       </c>
@@ -9164,8 +10627,16 @@
       <c r="J183" s="8" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M183" t="str">
+        <f t="shared" si="4"/>
+        <v>s</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>175</v>
       </c>
@@ -9196,8 +10667,16 @@
       <c r="J184" s="5" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M184" t="str">
+        <f t="shared" si="4"/>
+        <v>H</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>175</v>
       </c>
@@ -9233,8 +10712,16 @@
       <c r="J185" s="8" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M185" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>175</v>
       </c>
@@ -9265,8 +10752,16 @@
       <c r="J186" s="5" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M186" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>9</v>
       </c>
@@ -9302,8 +10797,16 @@
       <c r="J187" s="8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M187" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>9</v>
       </c>
@@ -9334,8 +10837,16 @@
       <c r="J188" s="5" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M188" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>58</v>
       </c>
@@ -9371,8 +10882,16 @@
       <c r="J189" s="8" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M189" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>58</v>
       </c>
@@ -9403,8 +10922,16 @@
       <c r="J190" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M190" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>58</v>
       </c>
@@ -9440,8 +10967,16 @@
       <c r="J191" s="8" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M191" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>58</v>
       </c>
@@ -9472,8 +11007,16 @@
       <c r="J192" s="5" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M192" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>486</v>
       </c>
@@ -9509,8 +11052,16 @@
       <c r="J193" s="8" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M193" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>486</v>
       </c>
@@ -9541,8 +11092,16 @@
       <c r="J194" s="5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M194" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>486</v>
       </c>
@@ -9578,8 +11137,16 @@
       <c r="J195" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M195" t="str">
+        <f t="shared" ref="M195:M258" si="6">IF(RIGHT(J195, 1)="*", LEFT(RIGHT(J195, 2),1), RIGHT(J195, 1))</f>
+        <v>A</v>
+      </c>
+      <c r="N195">
+        <f t="shared" ref="N195:N258" si="7">IF(M195="A", 1, IF(M195="B", 2, 3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>486</v>
       </c>
@@ -9610,8 +11177,16 @@
       <c r="J196" s="5" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M196" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>486</v>
       </c>
@@ -9642,8 +11217,16 @@
       <c r="J197" s="8" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M197" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>486</v>
       </c>
@@ -9674,8 +11257,16 @@
       <c r="J198" s="5" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M198" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>486</v>
       </c>
@@ -9706,8 +11297,16 @@
       <c r="J199" s="8" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M199" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>486</v>
       </c>
@@ -9738,8 +11337,16 @@
       <c r="J200" s="5" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M200" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>486</v>
       </c>
@@ -9770,8 +11377,16 @@
       <c r="J201" s="8" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M201" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>486</v>
       </c>
@@ -9802,8 +11417,16 @@
       <c r="J202" s="5" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M202" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>486</v>
       </c>
@@ -9834,8 +11457,16 @@
       <c r="J203" s="8" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M203" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>486</v>
       </c>
@@ -9866,8 +11497,16 @@
       <c r="J204" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M204" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>175</v>
       </c>
@@ -9903,8 +11542,16 @@
       <c r="J205" s="8" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M205" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>175</v>
       </c>
@@ -9935,8 +11582,16 @@
       <c r="J206" s="5" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M206" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>175</v>
       </c>
@@ -9972,8 +11627,16 @@
       <c r="J207" s="8" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M207" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>175</v>
       </c>
@@ -10004,8 +11667,16 @@
       <c r="J208" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M208" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>175</v>
       </c>
@@ -10041,8 +11712,16 @@
       <c r="J209" s="8" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M209" t="str">
+        <f t="shared" si="6"/>
+        <v>s</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>175</v>
       </c>
@@ -10073,8 +11752,16 @@
       <c r="J210" s="5" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M210" t="str">
+        <f t="shared" si="6"/>
+        <v>H</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>175</v>
       </c>
@@ -10110,8 +11797,16 @@
       <c r="J211" s="8" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M211" t="str">
+        <f t="shared" si="6"/>
+        <v>s</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>175</v>
       </c>
@@ -10142,8 +11837,16 @@
       <c r="J212" s="5" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M212" t="str">
+        <f t="shared" si="6"/>
+        <v>H</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>175</v>
       </c>
@@ -10179,8 +11882,16 @@
       <c r="J213" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M213" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>175</v>
       </c>
@@ -10211,8 +11922,16 @@
       <c r="J214" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M214" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>175</v>
       </c>
@@ -10248,8 +11967,16 @@
       <c r="J215" s="8" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M215" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>175</v>
       </c>
@@ -10280,8 +12007,16 @@
       <c r="J216" s="5" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M216" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>175</v>
       </c>
@@ -10317,8 +12052,16 @@
       <c r="J217" s="8" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M217" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>175</v>
       </c>
@@ -10349,8 +12092,16 @@
       <c r="J218" s="5" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M218" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>175</v>
       </c>
@@ -10386,8 +12137,16 @@
       <c r="J219" s="8" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M219" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>175</v>
       </c>
@@ -10418,8 +12177,16 @@
       <c r="J220" s="5" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M220" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>50</v>
       </c>
@@ -10455,8 +12222,16 @@
       <c r="J221" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M221" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>50</v>
       </c>
@@ -10487,8 +12262,16 @@
       <c r="J222" s="5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M222" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>50</v>
       </c>
@@ -10524,8 +12307,16 @@
       <c r="J223" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M223" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>50</v>
       </c>
@@ -10556,8 +12347,16 @@
       <c r="J224" s="5" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M224" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>50</v>
       </c>
@@ -10593,8 +12392,16 @@
       <c r="J225" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M225" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>50</v>
       </c>
@@ -10630,8 +12437,16 @@
       <c r="J226" s="5" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M226" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>50</v>
       </c>
@@ -10662,8 +12477,16 @@
       <c r="J227" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M227" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>50</v>
       </c>
@@ -10694,8 +12517,16 @@
       <c r="J228" s="5" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M228" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>50</v>
       </c>
@@ -10726,8 +12557,16 @@
       <c r="J229" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M229" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>50</v>
       </c>
@@ -10758,8 +12597,16 @@
       <c r="J230" s="5" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M230" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>50</v>
       </c>
@@ -10795,8 +12642,16 @@
       <c r="J231" s="8" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M231" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>29</v>
       </c>
@@ -10827,8 +12682,16 @@
       <c r="J232" s="5" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M232" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>58</v>
       </c>
@@ -10864,8 +12727,16 @@
       <c r="J233" s="8" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M233" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>58</v>
       </c>
@@ -10896,8 +12767,16 @@
       <c r="J234" s="5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M234" t="str">
+        <f t="shared" si="6"/>
+        <v>y</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>58</v>
       </c>
@@ -10928,8 +12807,16 @@
       <c r="J235" s="8" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M235" t="str">
+        <f t="shared" si="6"/>
+        <v>g</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>50</v>
       </c>
@@ -10965,8 +12852,16 @@
       <c r="J236" s="5" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M236" t="str">
+        <f t="shared" si="6"/>
+        <v>n</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>102</v>
       </c>
@@ -11002,8 +12897,16 @@
       <c r="J237" s="8" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M237" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>102</v>
       </c>
@@ -11034,8 +12937,16 @@
       <c r="J238" s="5" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M238" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>9</v>
       </c>
@@ -11071,8 +12982,16 @@
       <c r="J239" s="8" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M239" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>9</v>
       </c>
@@ -11103,8 +13022,16 @@
       <c r="J240" s="5" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M240" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>58</v>
       </c>
@@ -11140,8 +13067,16 @@
       <c r="J241" s="8" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M241" t="str">
+        <f t="shared" si="6"/>
+        <v>l</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>58</v>
       </c>
@@ -11172,8 +13107,16 @@
       <c r="J242" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M242" t="str">
+        <f t="shared" si="6"/>
+        <v>l</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>9</v>
       </c>
@@ -11209,8 +13152,16 @@
       <c r="J243" s="8" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M243" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>9</v>
       </c>
@@ -11241,8 +13192,16 @@
       <c r="J244" s="5" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M244" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>9</v>
       </c>
@@ -11278,8 +13237,16 @@
       <c r="J245" s="8" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M245" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>9</v>
       </c>
@@ -11310,8 +13277,16 @@
       <c r="J246" s="5" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M246" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>9</v>
       </c>
@@ -11347,8 +13322,16 @@
       <c r="J247" s="8" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M247" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>9</v>
       </c>
@@ -11379,8 +13362,16 @@
       <c r="J248" s="5" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M248" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>102</v>
       </c>
@@ -11416,8 +13407,16 @@
       <c r="J249" s="8" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M249" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>102</v>
       </c>
@@ -11448,8 +13447,16 @@
       <c r="J250" s="5" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M250" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>31</v>
       </c>
@@ -11480,8 +13487,16 @@
       <c r="J251" s="8" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M251" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>31</v>
       </c>
@@ -11512,8 +13527,16 @@
       <c r="J252" s="5" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M252" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N252">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>31</v>
       </c>
@@ -11549,8 +13572,16 @@
       <c r="J253" s="8" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M253" t="str">
+        <f t="shared" si="6"/>
+        <v>s</v>
+      </c>
+      <c r="N253">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>31</v>
       </c>
@@ -11581,8 +13612,16 @@
       <c r="J254" s="5" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M254" t="str">
+        <f t="shared" si="6"/>
+        <v>H</v>
+      </c>
+      <c r="N254">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>121</v>
       </c>
@@ -11618,8 +13657,16 @@
       <c r="J255" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M255" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N255">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>121</v>
       </c>
@@ -11650,8 +13697,16 @@
       <c r="J256" s="5" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M256" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N256">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>121</v>
       </c>
@@ -11687,8 +13742,16 @@
       <c r="J257" s="8" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M257" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="N257">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>121</v>
       </c>
@@ -11719,8 +13782,16 @@
       <c r="J258" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M258" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="N258">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>486</v>
       </c>
@@ -11756,8 +13827,16 @@
       <c r="J259" s="8" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M259" t="str">
+        <f t="shared" ref="M259:M322" si="8">IF(RIGHT(J259, 1)="*", LEFT(RIGHT(J259, 2),1), RIGHT(J259, 1))</f>
+        <v>A</v>
+      </c>
+      <c r="N259">
+        <f t="shared" ref="N259:N322" si="9">IF(M259="A", 1, IF(M259="B", 2, 3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>486</v>
       </c>
@@ -11788,8 +13867,16 @@
       <c r="J260" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M260" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N260">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>486</v>
       </c>
@@ -11825,8 +13912,16 @@
       <c r="J261" s="8" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M261" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N261">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>486</v>
       </c>
@@ -11857,8 +13952,16 @@
       <c r="J262" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M262" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N262">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>50</v>
       </c>
@@ -11894,8 +13997,16 @@
       <c r="J263" s="8" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M263" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N263">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>29</v>
       </c>
@@ -11926,8 +14037,16 @@
       <c r="J264" s="5" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M264" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="N264">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>102</v>
       </c>
@@ -11963,8 +14082,16 @@
       <c r="J265" s="8" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M265" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N265">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>102</v>
       </c>
@@ -11995,8 +14122,16 @@
       <c r="J266" s="5" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M266" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N266">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>102</v>
       </c>
@@ -12032,8 +14167,16 @@
       <c r="J267" s="8" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M267" t="str">
+        <f t="shared" si="8"/>
+        <v>s</v>
+      </c>
+      <c r="N267">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>102</v>
       </c>
@@ -12064,8 +14207,16 @@
       <c r="J268" s="5" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M268" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N268">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>102</v>
       </c>
@@ -12101,8 +14252,16 @@
       <c r="J269" s="8" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M269" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N269">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>102</v>
       </c>
@@ -12133,8 +14292,16 @@
       <c r="J270" s="5" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M270" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N270">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>102</v>
       </c>
@@ -12170,8 +14337,16 @@
       <c r="J271" s="8" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M271" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N271">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>102</v>
       </c>
@@ -12202,8 +14377,16 @@
       <c r="J272" s="5" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M272" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N272">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>102</v>
       </c>
@@ -12239,8 +14422,16 @@
       <c r="J273" s="8" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M273" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="N273">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>102</v>
       </c>
@@ -12271,8 +14462,16 @@
       <c r="J274" s="5" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M274" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N274">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>9</v>
       </c>
@@ -12308,8 +14507,16 @@
       <c r="J275" s="8" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M275" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N275">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>9</v>
       </c>
@@ -12340,8 +14547,16 @@
       <c r="J276" s="5" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M276" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N276">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>212</v>
       </c>
@@ -12372,8 +14587,16 @@
       <c r="J277" s="8" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M277" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N277">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>24</v>
       </c>
@@ -12409,8 +14632,16 @@
       <c r="J278" s="5" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M278" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N278">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>24</v>
       </c>
@@ -12441,8 +14672,16 @@
       <c r="J279" s="8" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M279" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N279">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>102</v>
       </c>
@@ -12478,8 +14717,16 @@
       <c r="J280" s="5" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M280" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N280">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>102</v>
       </c>
@@ -12510,8 +14757,16 @@
       <c r="J281" s="8" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M281" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N281">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>121</v>
       </c>
@@ -12547,8 +14802,16 @@
       <c r="J282" s="5" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M282" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N282">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>121</v>
       </c>
@@ -12579,8 +14842,16 @@
       <c r="J283" s="8" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M283" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N283">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>102</v>
       </c>
@@ -12616,8 +14887,16 @@
       <c r="J284" s="5" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M284" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N284">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>50</v>
       </c>
@@ -12653,8 +14932,16 @@
       <c r="J285" s="8" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M285" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N285">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>58</v>
       </c>
@@ -12685,8 +14972,16 @@
       <c r="J286" s="5" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M286" t="str">
+        <f t="shared" si="8"/>
+        <v>e</v>
+      </c>
+      <c r="N286">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>58</v>
       </c>
@@ -12717,8 +15012,16 @@
       <c r="J287" s="8" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M287" t="str">
+        <f t="shared" si="8"/>
+        <v>y</v>
+      </c>
+      <c r="N287">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>9</v>
       </c>
@@ -12754,8 +15057,16 @@
       <c r="J288" s="5" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M288" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N288">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>9</v>
       </c>
@@ -12786,8 +15097,16 @@
       <c r="J289" s="8" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M289" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N289">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>9</v>
       </c>
@@ -12823,8 +15142,16 @@
       <c r="J290" s="5" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M290" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N290">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>9</v>
       </c>
@@ -12855,8 +15182,16 @@
       <c r="J291" s="8" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M291" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N291">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>9</v>
       </c>
@@ -12892,8 +15227,16 @@
       <c r="J292" s="5" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M292" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N292">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>9</v>
       </c>
@@ -12924,8 +15267,16 @@
       <c r="J293" s="8" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M293" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N293">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>102</v>
       </c>
@@ -12956,8 +15307,16 @@
       <c r="J294" s="5" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M294" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N294">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>121</v>
       </c>
@@ -12993,8 +15352,16 @@
       <c r="J295" s="8" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M295" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N295">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>121</v>
       </c>
@@ -13025,8 +15392,16 @@
       <c r="J296" s="5" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M296" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N296">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>175</v>
       </c>
@@ -13062,8 +15437,16 @@
       <c r="J297" s="8" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M297" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N297">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>175</v>
       </c>
@@ -13094,8 +15477,16 @@
       <c r="J298" s="5" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M298" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N298">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>175</v>
       </c>
@@ -13131,8 +15522,16 @@
       <c r="J299" s="8" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M299" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N299">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>175</v>
       </c>
@@ -13163,8 +15562,16 @@
       <c r="J300" s="5" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M300" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N300">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>175</v>
       </c>
@@ -13200,8 +15607,16 @@
       <c r="J301" s="8" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M301" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N301">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>175</v>
       </c>
@@ -13232,8 +15647,16 @@
       <c r="J302" s="5" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M302" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N302">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>175</v>
       </c>
@@ -13269,8 +15692,16 @@
       <c r="J303" s="8" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M303" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N303">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>175</v>
       </c>
@@ -13306,8 +15737,16 @@
       <c r="J304" s="5" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M304" t="str">
+        <f t="shared" si="8"/>
+        <v>s</v>
+      </c>
+      <c r="N304">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>175</v>
       </c>
@@ -13338,8 +15777,16 @@
       <c r="J305" s="8" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M305" t="str">
+        <f t="shared" si="8"/>
+        <v>H</v>
+      </c>
+      <c r="N305">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>175</v>
       </c>
@@ -13375,8 +15822,16 @@
       <c r="J306" s="5" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M306" t="str">
+        <f t="shared" si="8"/>
+        <v>s</v>
+      </c>
+      <c r="N306">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>175</v>
       </c>
@@ -13407,8 +15862,16 @@
       <c r="J307" s="8" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M307" t="str">
+        <f t="shared" si="8"/>
+        <v>H</v>
+      </c>
+      <c r="N307">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>175</v>
       </c>
@@ -13444,8 +15907,16 @@
       <c r="J308" s="5" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M308" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N308">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>175</v>
       </c>
@@ -13476,8 +15947,16 @@
       <c r="J309" s="8" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M309" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N309">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>175</v>
       </c>
@@ -13513,8 +15992,16 @@
       <c r="J310" s="5" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M310" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N310">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>175</v>
       </c>
@@ -13545,8 +16032,16 @@
       <c r="J311" s="8" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M311" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N311">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>31</v>
       </c>
@@ -13582,8 +16077,16 @@
       <c r="J312" s="5" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M312" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N312">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>31</v>
       </c>
@@ -13614,8 +16117,16 @@
       <c r="J313" s="8" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M313" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N313">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>50</v>
       </c>
@@ -13651,8 +16162,16 @@
       <c r="J314" s="5" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M314" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N314">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>50</v>
       </c>
@@ -13688,8 +16207,16 @@
       <c r="J315" s="8" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M315" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N315">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>29</v>
       </c>
@@ -13720,8 +16247,16 @@
       <c r="J316" s="5" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M316" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N316">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>121</v>
       </c>
@@ -13757,8 +16292,16 @@
       <c r="J317" s="8" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M317" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N317">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>121</v>
       </c>
@@ -13789,8 +16332,16 @@
       <c r="J318" s="5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M318" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N318">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>9</v>
       </c>
@@ -13826,8 +16377,16 @@
       <c r="J319" s="8" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M319" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N319">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>9</v>
       </c>
@@ -13858,8 +16417,16 @@
       <c r="J320" s="5" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M320" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N320">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>50</v>
       </c>
@@ -13890,8 +16457,16 @@
       <c r="J321" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M321" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="N321">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>9</v>
       </c>
@@ -13927,8 +16502,16 @@
       <c r="J322" s="5" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M322" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="N322">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>9</v>
       </c>
@@ -13959,8 +16542,16 @@
       <c r="J323" s="8" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M323" t="str">
+        <f t="shared" ref="M323:M351" si="10">IF(RIGHT(J323, 1)="*", LEFT(RIGHT(J323, 2),1), RIGHT(J323, 1))</f>
+        <v>B</v>
+      </c>
+      <c r="N323">
+        <f t="shared" ref="N323:N351" si="11">IF(M323="A", 1, IF(M323="B", 2, 3))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>9</v>
       </c>
@@ -13996,8 +16587,16 @@
       <c r="J324" s="5" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M324" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N324">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>9</v>
       </c>
@@ -14028,8 +16627,16 @@
       <c r="J325" s="8" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M325" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N325">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>9</v>
       </c>
@@ -14065,8 +16672,16 @@
       <c r="J326" s="5" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M326" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N326">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>9</v>
       </c>
@@ -14097,8 +16712,16 @@
       <c r="J327" s="8" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M327" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N327">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>24</v>
       </c>
@@ -14134,8 +16757,16 @@
       <c r="J328" s="5" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M328" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N328">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>24</v>
       </c>
@@ -14166,8 +16797,16 @@
       <c r="J329" s="8" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M329" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N329">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>24</v>
       </c>
@@ -14203,8 +16842,16 @@
       <c r="J330" s="5" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M330" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N330">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>24</v>
       </c>
@@ -14235,8 +16882,16 @@
       <c r="J331" s="8" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M331" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N331">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>50</v>
       </c>
@@ -14272,8 +16927,16 @@
       <c r="J332" s="5" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M332" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N332">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>29</v>
       </c>
@@ -14304,8 +16967,16 @@
       <c r="J333" s="8" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M333" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N333">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>9</v>
       </c>
@@ -14341,8 +17012,16 @@
       <c r="J334" s="5" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M334" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N334">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>9</v>
       </c>
@@ -14373,8 +17052,16 @@
       <c r="J335" s="8" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M335" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N335">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>9</v>
       </c>
@@ -14410,8 +17097,16 @@
       <c r="J336" s="5" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M336" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N336">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>9</v>
       </c>
@@ -14442,8 +17137,16 @@
       <c r="J337" s="8" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M337" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N337">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>50</v>
       </c>
@@ -14479,8 +17182,16 @@
       <c r="J338" s="5" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M338" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N338">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>29</v>
       </c>
@@ -14511,8 +17222,16 @@
       <c r="J339" s="8" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M339" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N339">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>121</v>
       </c>
@@ -14548,8 +17267,16 @@
       <c r="J340" s="5" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M340" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N340">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>121</v>
       </c>
@@ -14580,8 +17307,16 @@
       <c r="J341" s="8" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M341" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N341">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>24</v>
       </c>
@@ -14617,8 +17352,16 @@
       <c r="J342" s="5" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M342" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N342">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>24</v>
       </c>
@@ -14649,8 +17392,16 @@
       <c r="J343" s="8" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M343" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N343">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>24</v>
       </c>
@@ -14686,8 +17437,16 @@
       <c r="J344" s="5" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M344" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N344">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>24</v>
       </c>
@@ -14718,8 +17477,16 @@
       <c r="J345" s="8" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M345" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N345">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>50</v>
       </c>
@@ -14755,8 +17522,16 @@
       <c r="J346" s="5" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M346" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N346">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>29</v>
       </c>
@@ -14787,8 +17562,16 @@
       <c r="J347" s="8" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M347" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N347">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>121</v>
       </c>
@@ -14824,8 +17607,16 @@
       <c r="J348" s="5" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M348" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N348">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>121</v>
       </c>
@@ -14856,8 +17647,16 @@
       <c r="J349" s="8" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M349" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N349">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>58</v>
       </c>
@@ -14893,8 +17692,16 @@
       <c r="J350" s="5" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M350" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="N350">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>58</v>
       </c>
@@ -14924,6 +17731,14 @@
       </c>
       <c r="J351" s="8" t="s">
         <v>832</v>
+      </c>
+      <c r="M351" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="N351">
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
